--- a/data/pca/factorExposure/factorExposure_2011-03-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.009575410628885409</v>
+        <v>0.01361699417088298</v>
       </c>
       <c r="C2">
-        <v>0.003036741738849187</v>
+        <v>-0.007001018908336861</v>
       </c>
       <c r="D2">
-        <v>-0.0114966843886839</v>
+        <v>0.003718468345569016</v>
       </c>
       <c r="E2">
-        <v>0.01905142298614001</v>
+        <v>-0.01041097544760495</v>
       </c>
       <c r="F2">
-        <v>0.01271082216361456</v>
+        <v>-0.001266907511384859</v>
       </c>
       <c r="G2">
-        <v>-0.01971909452766092</v>
+        <v>-0.02306313602038756</v>
       </c>
       <c r="H2">
-        <v>-0.03714919459552107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01025266046816655</v>
+      </c>
+      <c r="I2">
+        <v>-0.003367939734637068</v>
+      </c>
+      <c r="J2">
+        <v>0.01055198187553352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1085377620232269</v>
+        <v>0.1212011209353825</v>
       </c>
       <c r="C4">
-        <v>-0.02154948111541841</v>
+        <v>-0.05368333755718419</v>
       </c>
       <c r="D4">
-        <v>-0.08042937026915344</v>
+        <v>0.0101032902300983</v>
       </c>
       <c r="E4">
-        <v>0.03167956699096641</v>
+        <v>-0.002786070012134113</v>
       </c>
       <c r="F4">
-        <v>0.0255182593641305</v>
+        <v>-0.007157684676876501</v>
       </c>
       <c r="G4">
-        <v>-0.02088725709773676</v>
+        <v>-0.003988680023014374</v>
       </c>
       <c r="H4">
-        <v>0.02245812864698599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.06027689993952658</v>
+      </c>
+      <c r="I4">
+        <v>0.1371367378273312</v>
+      </c>
+      <c r="J4">
+        <v>0.02023309402609358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1278987086689633</v>
+        <v>0.1213610077398364</v>
       </c>
       <c r="C6">
-        <v>-0.03007902796058499</v>
+        <v>7.899665659977606e-05</v>
       </c>
       <c r="D6">
-        <v>0.0230460330989463</v>
+        <v>0.01415226619152203</v>
       </c>
       <c r="E6">
-        <v>0.02816997210000086</v>
+        <v>-0.01266018439285215</v>
       </c>
       <c r="F6">
-        <v>-0.2494347366838006</v>
+        <v>-0.0265794225371264</v>
       </c>
       <c r="G6">
-        <v>0.1038577953843528</v>
+        <v>0.03740816753813971</v>
       </c>
       <c r="H6">
-        <v>0.2839156714024554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.02940447947326843</v>
+      </c>
+      <c r="I6">
+        <v>0.02217007503359501</v>
+      </c>
+      <c r="J6">
+        <v>-0.1674703986597987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08955907299312287</v>
+        <v>0.07815351445293103</v>
       </c>
       <c r="C7">
-        <v>-0.03554061867837598</v>
+        <v>-0.04789585956912435</v>
       </c>
       <c r="D7">
-        <v>-0.03102762998026267</v>
+        <v>0.04064250121245921</v>
       </c>
       <c r="E7">
-        <v>0.05128588916117668</v>
+        <v>-0.04618689844307006</v>
       </c>
       <c r="F7">
-        <v>-0.006111704807516369</v>
+        <v>-0.004824466617811738</v>
       </c>
       <c r="G7">
-        <v>0.001108320265959783</v>
+        <v>-0.0377950164655838</v>
       </c>
       <c r="H7">
-        <v>0.006348024161567579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.0326598320687054</v>
+      </c>
+      <c r="I7">
+        <v>0.04425108303688524</v>
+      </c>
+      <c r="J7">
+        <v>0.03628870029739815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04228101140012028</v>
+        <v>0.05086020732729463</v>
       </c>
       <c r="C8">
-        <v>0.03373572476203826</v>
+        <v>-0.005604248257278986</v>
       </c>
       <c r="D8">
-        <v>-0.1217966561663186</v>
+        <v>0.00604372339186342</v>
       </c>
       <c r="E8">
-        <v>0.07810287371705169</v>
+        <v>-0.01985162526859444</v>
       </c>
       <c r="F8">
-        <v>0.008627788244675715</v>
+        <v>0.004440122103370613</v>
       </c>
       <c r="G8">
-        <v>-0.1367035263182142</v>
+        <v>-8.937509867190244e-05</v>
       </c>
       <c r="H8">
-        <v>0.06191486812367363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.07035976326790278</v>
+      </c>
+      <c r="I8">
+        <v>0.1032069645344561</v>
+      </c>
+      <c r="J8">
+        <v>-0.02860334699944235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09486204243803945</v>
+        <v>0.09406979771086862</v>
       </c>
       <c r="C9">
-        <v>-0.03822551007129698</v>
+        <v>-0.05466074046393721</v>
       </c>
       <c r="D9">
-        <v>-0.06624601755508976</v>
+        <v>-0.0054006864258421</v>
       </c>
       <c r="E9">
-        <v>0.03391674512851955</v>
+        <v>-0.0142405923559545</v>
       </c>
       <c r="F9">
-        <v>0.0144902605982488</v>
+        <v>0.004072936175515032</v>
       </c>
       <c r="G9">
-        <v>-0.06439059729755464</v>
+        <v>-0.01881587863816445</v>
       </c>
       <c r="H9">
-        <v>0.04277138026479873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.07293252961241543</v>
+      </c>
+      <c r="I9">
+        <v>0.1120663441370513</v>
+      </c>
+      <c r="J9">
+        <v>0.003233741025981661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.03842941090047661</v>
+        <v>0.07349054068784168</v>
       </c>
       <c r="C10">
-        <v>0.1727726377368101</v>
+        <v>0.1822347206923243</v>
       </c>
       <c r="D10">
-        <v>-0.03545001695044329</v>
+        <v>-0.01189073510327129</v>
       </c>
       <c r="E10">
-        <v>0.09915729476465927</v>
+        <v>0.005926183793868377</v>
       </c>
       <c r="F10">
-        <v>-0.02049006872031347</v>
+        <v>-0.01240722029393646</v>
       </c>
       <c r="G10">
-        <v>0.01515082927053915</v>
+        <v>-0.06603788598337315</v>
       </c>
       <c r="H10">
-        <v>0.02789771238654528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.0005737393623677109</v>
+      </c>
+      <c r="I10">
+        <v>0.01331975121188473</v>
+      </c>
+      <c r="J10">
+        <v>0.03307016231442079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07604716788488307</v>
+        <v>0.08376128341611594</v>
       </c>
       <c r="C11">
-        <v>-0.05769206113606782</v>
+        <v>-0.05558921277600495</v>
       </c>
       <c r="D11">
-        <v>0.01213173182680628</v>
+        <v>0.02444163269465346</v>
       </c>
       <c r="E11">
-        <v>0.02624904466539828</v>
+        <v>-0.03597778602283012</v>
       </c>
       <c r="F11">
-        <v>0.03360220204302475</v>
+        <v>0.04142632399740544</v>
       </c>
       <c r="G11">
-        <v>-0.1537855318102424</v>
+        <v>0.002190576335331665</v>
       </c>
       <c r="H11">
-        <v>-0.04439880732131139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.07807416074725257</v>
+      </c>
+      <c r="I11">
+        <v>0.09780496157840782</v>
+      </c>
+      <c r="J11">
+        <v>0.001293513587119496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07361730246893344</v>
+        <v>0.08715323669698011</v>
       </c>
       <c r="C12">
-        <v>-0.04131352116860109</v>
+        <v>-0.06455404788352875</v>
       </c>
       <c r="D12">
-        <v>-0.03288566440188149</v>
+        <v>0.02691968424452335</v>
       </c>
       <c r="E12">
-        <v>0.007296802846369666</v>
+        <v>-0.03771736884284584</v>
       </c>
       <c r="F12">
-        <v>-0.01046280344417637</v>
+        <v>0.0597424447219126</v>
       </c>
       <c r="G12">
-        <v>-0.1498829341232125</v>
+        <v>-0.01203376279267076</v>
       </c>
       <c r="H12">
-        <v>-0.03990524212979055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.08698607701866379</v>
+      </c>
+      <c r="I12">
+        <v>0.07527788732310854</v>
+      </c>
+      <c r="J12">
+        <v>-0.03138573656481564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06324880791556714</v>
+        <v>0.04848630797363636</v>
       </c>
       <c r="C13">
-        <v>-0.008536451045663699</v>
+        <v>-0.02709314335435729</v>
       </c>
       <c r="D13">
-        <v>-0.02914507342495533</v>
+        <v>-0.02796849143053767</v>
       </c>
       <c r="E13">
-        <v>0.004761612437082615</v>
+        <v>-0.01459133859546459</v>
       </c>
       <c r="F13">
-        <v>0.0442191992555581</v>
+        <v>-0.01980822503966561</v>
       </c>
       <c r="G13">
-        <v>-0.06448254360502222</v>
+        <v>-0.009459227199926732</v>
       </c>
       <c r="H13">
-        <v>0.01163885946709131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.06957934444682681</v>
+      </c>
+      <c r="I13">
+        <v>0.0590041981517818</v>
+      </c>
+      <c r="J13">
+        <v>-0.02646452423765478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05350661566378063</v>
+        <v>0.03467972846388123</v>
       </c>
       <c r="C14">
-        <v>-0.007215914740418357</v>
+        <v>-0.006261202495251243</v>
       </c>
       <c r="D14">
-        <v>-0.04947056194898302</v>
+        <v>0.008852764404709801</v>
       </c>
       <c r="E14">
-        <v>0.04646876929656921</v>
+        <v>-0.003281591243646737</v>
       </c>
       <c r="F14">
-        <v>0.02385587930695223</v>
+        <v>0.01478581606960802</v>
       </c>
       <c r="G14">
-        <v>-0.02017572847140778</v>
+        <v>-0.007373256139374547</v>
       </c>
       <c r="H14">
-        <v>0.1349431932200076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.04736123100364461</v>
+      </c>
+      <c r="I14">
+        <v>0.08032001788756529</v>
+      </c>
+      <c r="J14">
+        <v>0.07110222859372846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03763386080396854</v>
+        <v>0.02825232067089419</v>
       </c>
       <c r="C15">
-        <v>0.01092469940682047</v>
+        <v>-0.0110112853113865</v>
       </c>
       <c r="D15">
-        <v>-0.008891872440533436</v>
+        <v>-0.01162916773364026</v>
       </c>
       <c r="E15">
-        <v>0.01645820488675096</v>
+        <v>-0.0157986222400577</v>
       </c>
       <c r="F15">
-        <v>0.0003166150897063315</v>
+        <v>-0.03335732204919851</v>
       </c>
       <c r="G15">
-        <v>-0.005367673967949819</v>
+        <v>-0.007972593194713811</v>
       </c>
       <c r="H15">
-        <v>0.06831373197882483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03536581731203088</v>
+      </c>
+      <c r="I15">
+        <v>0.02169539119895175</v>
+      </c>
+      <c r="J15">
+        <v>0.02861070337827002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08248769802030004</v>
+        <v>0.08973935372328291</v>
       </c>
       <c r="C16">
-        <v>-0.0692985158508071</v>
+        <v>-0.06038221953550857</v>
       </c>
       <c r="D16">
-        <v>-0.03970248219065164</v>
+        <v>0.03829250906810168</v>
       </c>
       <c r="E16">
-        <v>0.007529346262665736</v>
+        <v>-0.04720626335788353</v>
       </c>
       <c r="F16">
-        <v>0.04335878148726683</v>
+        <v>0.04327151504419487</v>
       </c>
       <c r="G16">
-        <v>-0.11359279408896</v>
+        <v>-0.0004776628478199633</v>
       </c>
       <c r="H16">
-        <v>-0.05095929060388717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.09934985225227518</v>
+      </c>
+      <c r="I16">
+        <v>0.08577479400662109</v>
+      </c>
+      <c r="J16">
+        <v>0.003062348459246613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05641691819722251</v>
+        <v>0.05241259916473975</v>
       </c>
       <c r="C20">
-        <v>-0.01934537722687645</v>
+        <v>-0.02564838557353449</v>
       </c>
       <c r="D20">
-        <v>-0.02132544343947919</v>
+        <v>0.03249456650369711</v>
       </c>
       <c r="E20">
-        <v>0.01512948762374653</v>
+        <v>-0.005222735087336048</v>
       </c>
       <c r="F20">
-        <v>0.001363029232042239</v>
+        <v>-0.01120101863173418</v>
       </c>
       <c r="G20">
-        <v>-0.1058902714905614</v>
+        <v>-0.003051990218992828</v>
       </c>
       <c r="H20">
-        <v>-0.001934824487314234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.0420684940906897</v>
+      </c>
+      <c r="I20">
+        <v>0.05276264329423463</v>
+      </c>
+      <c r="J20">
+        <v>0.03452542156454172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02627035524171496</v>
+        <v>0.02289225509099428</v>
       </c>
       <c r="C21">
-        <v>-0.03504148769971864</v>
+        <v>-0.004811919189221866</v>
       </c>
       <c r="D21">
-        <v>0.0004707992818541516</v>
+        <v>0.01081509424240449</v>
       </c>
       <c r="E21">
-        <v>0.01766688811557705</v>
+        <v>0.03446827025285072</v>
       </c>
       <c r="F21">
-        <v>-0.06383346515985437</v>
+        <v>-0.005363091922498653</v>
       </c>
       <c r="G21">
-        <v>0.09905627326516099</v>
+        <v>0.02808916794414286</v>
       </c>
       <c r="H21">
-        <v>0.08342624072723133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.03724088959425437</v>
+      </c>
+      <c r="I21">
+        <v>0.08280062620121137</v>
+      </c>
+      <c r="J21">
+        <v>-0.01134873123656425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.03987471732459074</v>
+        <v>0.03270230860151974</v>
       </c>
       <c r="C22">
-        <v>-0.0122147963427901</v>
+        <v>0.01130084977013374</v>
       </c>
       <c r="D22">
-        <v>-0.5251181653756785</v>
+        <v>0.008800667043056563</v>
       </c>
       <c r="E22">
-        <v>-0.2334942423181888</v>
+        <v>-0.1241234772654963</v>
       </c>
       <c r="F22">
-        <v>0.06308386005678242</v>
+        <v>-0.6195983776865657</v>
       </c>
       <c r="G22">
-        <v>0.3166693425758064</v>
+        <v>-0.07799095863691795</v>
       </c>
       <c r="H22">
-        <v>-0.07765558102826539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1857372870390235</v>
+      </c>
+      <c r="I22">
+        <v>-0.1298455812677</v>
+      </c>
+      <c r="J22">
+        <v>-0.01474133627793865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.03999862183182052</v>
+        <v>0.03288057170103275</v>
       </c>
       <c r="C23">
-        <v>-0.0126703094730533</v>
+        <v>0.01099727879481021</v>
       </c>
       <c r="D23">
-        <v>-0.5245026203871722</v>
+        <v>0.009251553960554083</v>
       </c>
       <c r="E23">
-        <v>-0.2309582674149971</v>
+        <v>-0.1258546034522714</v>
       </c>
       <c r="F23">
-        <v>0.06406591777192901</v>
+        <v>-0.6214689925824886</v>
       </c>
       <c r="G23">
-        <v>0.3175714850613457</v>
+        <v>-0.07779145107897616</v>
       </c>
       <c r="H23">
-        <v>-0.07651370814825584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1871121132297361</v>
+      </c>
+      <c r="I23">
+        <v>-0.1268372001806474</v>
+      </c>
+      <c r="J23">
+        <v>-0.01402725674203434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08516972829468723</v>
+        <v>0.0940082001883752</v>
       </c>
       <c r="C24">
-        <v>-0.04667542117687361</v>
+        <v>-0.05881769107736637</v>
       </c>
       <c r="D24">
-        <v>-0.03311225954598731</v>
+        <v>0.03413520078890535</v>
       </c>
       <c r="E24">
-        <v>0.02955869495141051</v>
+        <v>-0.03323199371221112</v>
       </c>
       <c r="F24">
-        <v>0.01151706993878196</v>
+        <v>0.04249881659733102</v>
       </c>
       <c r="G24">
-        <v>-0.1229360024814453</v>
+        <v>-0.01705512218002914</v>
       </c>
       <c r="H24">
-        <v>-0.01954673596346359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.09921509311004208</v>
+      </c>
+      <c r="I24">
+        <v>0.07721595469156342</v>
+      </c>
+      <c r="J24">
+        <v>-0.004241894624401128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07772772866934304</v>
+        <v>0.09331633114587079</v>
       </c>
       <c r="C25">
-        <v>-0.02453057285213014</v>
+        <v>-0.0395398260002973</v>
       </c>
       <c r="D25">
-        <v>-0.03335820204523154</v>
+        <v>0.02546855197565473</v>
       </c>
       <c r="E25">
-        <v>0.01730959012893128</v>
+        <v>-0.03610307498612773</v>
       </c>
       <c r="F25">
-        <v>-0.01521181559409468</v>
+        <v>0.06715023435373894</v>
       </c>
       <c r="G25">
-        <v>-0.1241541774503456</v>
+        <v>-0.01374808681674951</v>
       </c>
       <c r="H25">
-        <v>-0.02860895606541414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.09723365026731254</v>
+      </c>
+      <c r="I25">
+        <v>0.07747039428690489</v>
+      </c>
+      <c r="J25">
+        <v>0.009320970313573139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05145491066940332</v>
+        <v>0.04137673354248929</v>
       </c>
       <c r="C26">
-        <v>-0.02098601801379158</v>
+        <v>0.01097615468740004</v>
       </c>
       <c r="D26">
-        <v>-0.02864557315429029</v>
+        <v>0.02264836765927198</v>
       </c>
       <c r="E26">
-        <v>0.04592456872582721</v>
+        <v>-0.0004398161211664138</v>
       </c>
       <c r="F26">
-        <v>0.04333306603197638</v>
+        <v>-0.003290676677195349</v>
       </c>
       <c r="G26">
-        <v>-0.05480543476972405</v>
+        <v>0.01951872898325954</v>
       </c>
       <c r="H26">
-        <v>0.0635531196828506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.06183718344116103</v>
+      </c>
+      <c r="I26">
+        <v>0.03473769837976063</v>
+      </c>
+      <c r="J26">
+        <v>0.0569930425244233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06147723736974101</v>
+        <v>0.08240725413014739</v>
       </c>
       <c r="C28">
-        <v>0.3071537782307469</v>
+        <v>0.304496047329722</v>
       </c>
       <c r="D28">
-        <v>0.01147915100911912</v>
+        <v>-0.09269049101118837</v>
       </c>
       <c r="E28">
-        <v>0.02615981265022899</v>
+        <v>-0.01575580454504565</v>
       </c>
       <c r="F28">
-        <v>-0.03377094314675633</v>
+        <v>0.02819182815873156</v>
       </c>
       <c r="G28">
-        <v>0.01664201451797412</v>
+        <v>-0.003843219135491511</v>
       </c>
       <c r="H28">
-        <v>-0.072084924910067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.03985685309208353</v>
+      </c>
+      <c r="I28">
+        <v>0.03609632756636071</v>
+      </c>
+      <c r="J28">
+        <v>-0.00386452526568311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.06009286554226885</v>
+        <v>0.03618515672778428</v>
       </c>
       <c r="C29">
-        <v>5.573934518763244e-05</v>
+        <v>-0.00820524946995271</v>
       </c>
       <c r="D29">
-        <v>-0.05684536542866878</v>
+        <v>-0.005220165506080578</v>
       </c>
       <c r="E29">
-        <v>0.02220556412522549</v>
+        <v>-0.01160622032152358</v>
       </c>
       <c r="F29">
-        <v>0.02981017317032775</v>
+        <v>0.01936001381664699</v>
       </c>
       <c r="G29">
-        <v>-0.03060244189331328</v>
+        <v>-0.02670296823464116</v>
       </c>
       <c r="H29">
-        <v>0.08026848494124092</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.08183813959703856</v>
+      </c>
+      <c r="I29">
+        <v>0.06922627244035552</v>
+      </c>
+      <c r="J29">
+        <v>0.0618922738281204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1149924161586099</v>
+        <v>0.1177669773693184</v>
       </c>
       <c r="C30">
-        <v>0.02969941142872359</v>
+        <v>-0.06246938526387667</v>
       </c>
       <c r="D30">
-        <v>-0.2042303833155589</v>
+        <v>-0.01532989097393226</v>
       </c>
       <c r="E30">
-        <v>-0.000663469245467785</v>
+        <v>-0.04255516606704334</v>
       </c>
       <c r="F30">
-        <v>-0.1121017573825573</v>
+        <v>0.02227865586699661</v>
       </c>
       <c r="G30">
-        <v>-0.1698261973097991</v>
+        <v>0.03241060407333978</v>
       </c>
       <c r="H30">
-        <v>-0.004620290673897514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1566740022825913</v>
+      </c>
+      <c r="I30">
+        <v>0.0730891178809364</v>
+      </c>
+      <c r="J30">
+        <v>-0.2877859231954062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05687883602824252</v>
+        <v>0.03629963456181449</v>
       </c>
       <c r="C31">
-        <v>-0.02369807689621633</v>
+        <v>-0.02424626541317068</v>
       </c>
       <c r="D31">
-        <v>-0.006674048294126808</v>
+        <v>0.02231436030169652</v>
       </c>
       <c r="E31">
-        <v>-0.01873734637191952</v>
+        <v>-0.02301411236917185</v>
       </c>
       <c r="F31">
-        <v>0.02421794480993472</v>
+        <v>-0.001414805766192303</v>
       </c>
       <c r="G31">
-        <v>-0.01063334673163151</v>
+        <v>-0.002886673301772538</v>
       </c>
       <c r="H31">
-        <v>0.02312066420711764</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.01315575149714472</v>
+      </c>
+      <c r="I31">
+        <v>0.04040905479312752</v>
+      </c>
+      <c r="J31">
+        <v>0.06846394632983349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03484065382036616</v>
+        <v>0.05577210224214108</v>
       </c>
       <c r="C32">
-        <v>0.01085633733380776</v>
+        <v>-0.005291184943840672</v>
       </c>
       <c r="D32">
-        <v>-0.1015959619721627</v>
+        <v>0.02037142600160417</v>
       </c>
       <c r="E32">
-        <v>-0.05254841182581316</v>
+        <v>-0.001353308717928369</v>
       </c>
       <c r="F32">
-        <v>0.09803539395415313</v>
+        <v>0.05034628758563342</v>
       </c>
       <c r="G32">
-        <v>-0.01804353193975608</v>
+        <v>0.04371044415132064</v>
       </c>
       <c r="H32">
-        <v>0.009456052806903993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.05669908294532249</v>
+      </c>
+      <c r="I32">
+        <v>0.03400414724587543</v>
+      </c>
+      <c r="J32">
+        <v>-0.01708557555657878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1140172916484708</v>
+        <v>0.1070191558362007</v>
       </c>
       <c r="C33">
-        <v>-0.01621663584363623</v>
+        <v>-0.05839032282886644</v>
       </c>
       <c r="D33">
-        <v>-0.01911933233269661</v>
+        <v>-0.0004963073544941164</v>
       </c>
       <c r="E33">
-        <v>-0.03373680502828218</v>
+        <v>-0.07956215550662279</v>
       </c>
       <c r="F33">
-        <v>0.01437060241773085</v>
+        <v>0.03801699248788025</v>
       </c>
       <c r="G33">
-        <v>-0.0709316615760005</v>
+        <v>-0.001579151540169601</v>
       </c>
       <c r="H33">
-        <v>0.05998517672338236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.07372423945716161</v>
+      </c>
+      <c r="I33">
+        <v>0.05153573054480944</v>
+      </c>
+      <c r="J33">
+        <v>0.01741744193371405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06904034185094023</v>
+        <v>0.08232443799602898</v>
       </c>
       <c r="C34">
-        <v>-0.04389388236234878</v>
+        <v>-0.04811417568273323</v>
       </c>
       <c r="D34">
-        <v>-0.01488564027407116</v>
+        <v>0.03156118321310103</v>
       </c>
       <c r="E34">
-        <v>-0.001217595753238379</v>
+        <v>-0.03697497969158138</v>
       </c>
       <c r="F34">
-        <v>0.02657354017186038</v>
+        <v>0.04649436549129844</v>
       </c>
       <c r="G34">
-        <v>-0.09659865387996618</v>
+        <v>-0.008859359101476512</v>
       </c>
       <c r="H34">
-        <v>-0.0188480923944949</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.1103380197485003</v>
+      </c>
+      <c r="I34">
+        <v>0.06603064745646953</v>
+      </c>
+      <c r="J34">
+        <v>0.0004360977401948128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04260333143300481</v>
+        <v>0.02169606053088732</v>
       </c>
       <c r="C35">
-        <v>-0.007020721245060446</v>
+        <v>-0.01306467272749802</v>
       </c>
       <c r="D35">
-        <v>0.009617788817560986</v>
+        <v>-0.006735819922756941</v>
       </c>
       <c r="E35">
-        <v>-0.01118500722844079</v>
+        <v>-0.009197675593777651</v>
       </c>
       <c r="F35">
-        <v>-0.04462550924211391</v>
+        <v>0.01133786398250269</v>
       </c>
       <c r="G35">
-        <v>-0.04642384446760947</v>
+        <v>-0.006583735299574666</v>
       </c>
       <c r="H35">
-        <v>-0.02839223642818167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.05318806662796949</v>
+      </c>
+      <c r="I35">
+        <v>0.03650472776672761</v>
+      </c>
+      <c r="J35">
+        <v>0.04503141614139583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03894195519361107</v>
+        <v>0.02829459679781482</v>
       </c>
       <c r="C36">
-        <v>-0.001501442646269405</v>
+        <v>-0.008017255129964469</v>
       </c>
       <c r="D36">
-        <v>-0.03568916339284744</v>
+        <v>-0.005834378859422224</v>
       </c>
       <c r="E36">
-        <v>0.01271726212674576</v>
+        <v>-0.002753550364563992</v>
       </c>
       <c r="F36">
-        <v>-0.008764074811382631</v>
+        <v>-0.01028090495701894</v>
       </c>
       <c r="G36">
-        <v>-0.05879459192294397</v>
+        <v>0.01286285172131463</v>
       </c>
       <c r="H36">
-        <v>0.04225467418362955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.03796182175312044</v>
+      </c>
+      <c r="I36">
+        <v>0.04379793257018184</v>
+      </c>
+      <c r="J36">
+        <v>0.02015493989844613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05464976245565156</v>
+        <v>0.01853926554068521</v>
       </c>
       <c r="C38">
-        <v>-0.0166464051255142</v>
+        <v>-0.01053555475107578</v>
       </c>
       <c r="D38">
-        <v>-0.01723895975855808</v>
+        <v>0.009291722956622802</v>
       </c>
       <c r="E38">
-        <v>0.008602037993301051</v>
+        <v>-0.01423714078133018</v>
       </c>
       <c r="F38">
-        <v>0.0306767155303264</v>
+        <v>-0.01966271401598793</v>
       </c>
       <c r="G38">
-        <v>-0.0579206875182334</v>
+        <v>-0.01671652831881603</v>
       </c>
       <c r="H38">
-        <v>-0.01104034586142594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01178737012977007</v>
+      </c>
+      <c r="I38">
+        <v>-0.03619666077484717</v>
+      </c>
+      <c r="J38">
+        <v>0.009535374380909307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1064824165196827</v>
+        <v>0.1371675340552402</v>
       </c>
       <c r="C39">
-        <v>-0.03922609480453797</v>
+        <v>-0.09028551116288361</v>
       </c>
       <c r="D39">
-        <v>-0.07292037902931588</v>
+        <v>0.02216763458459728</v>
       </c>
       <c r="E39">
-        <v>0.002701838427455054</v>
+        <v>-0.05451794846799926</v>
       </c>
       <c r="F39">
-        <v>0.02081109199701375</v>
+        <v>0.1320497820486514</v>
       </c>
       <c r="G39">
-        <v>-0.1438058026170169</v>
+        <v>-0.016088745746248</v>
       </c>
       <c r="H39">
-        <v>-0.1048515168351812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1521558435622435</v>
+      </c>
+      <c r="I39">
+        <v>0.05471641193552657</v>
+      </c>
+      <c r="J39">
+        <v>0.01603683284676745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04705235481676415</v>
+        <v>0.01760697730528871</v>
       </c>
       <c r="C40">
-        <v>-0.02187068356852898</v>
+        <v>-0.01882425678379096</v>
       </c>
       <c r="D40">
-        <v>-0.07532279344217663</v>
+        <v>0.01521002354927635</v>
       </c>
       <c r="E40">
-        <v>-0.03830530556334078</v>
+        <v>0.0004839674270357686</v>
       </c>
       <c r="F40">
-        <v>-0.02361068423039583</v>
+        <v>-0.0609805021518796</v>
       </c>
       <c r="G40">
-        <v>-0.2881360303823607</v>
+        <v>-0.002470268218732947</v>
       </c>
       <c r="H40">
-        <v>-0.07570391748631294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.07222356131285655</v>
+      </c>
+      <c r="I40">
+        <v>0.07839634252366968</v>
+      </c>
+      <c r="J40">
+        <v>-0.04349749289762266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04880493640503203</v>
+        <v>0.02719991221527432</v>
       </c>
       <c r="C41">
-        <v>-0.02935859629508674</v>
+        <v>0.004119632006621626</v>
       </c>
       <c r="D41">
-        <v>0.01263742845800594</v>
+        <v>0.03134523495696414</v>
       </c>
       <c r="E41">
-        <v>0.008442645402455514</v>
+        <v>-0.007904993136233015</v>
       </c>
       <c r="F41">
-        <v>0.03733369101624453</v>
+        <v>0.01454441226705106</v>
       </c>
       <c r="G41">
-        <v>-0.05387654445280232</v>
+        <v>-0.008451049610889643</v>
       </c>
       <c r="H41">
-        <v>-0.01606012914168957</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.01685544526861811</v>
+      </c>
+      <c r="I41">
+        <v>0.02104615571405156</v>
+      </c>
+      <c r="J41">
+        <v>0.03491166694035489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07445863871057234</v>
+        <v>0.04083946877129409</v>
       </c>
       <c r="C43">
-        <v>-0.02493096213676866</v>
+        <v>-0.002042941232390631</v>
       </c>
       <c r="D43">
-        <v>-0.02595309354260702</v>
+        <v>0.03986755646459944</v>
       </c>
       <c r="E43">
-        <v>0.007703065269459238</v>
+        <v>-0.03762582217624589</v>
       </c>
       <c r="F43">
-        <v>0.03606243120916336</v>
+        <v>-0.0002345771960576566</v>
       </c>
       <c r="G43">
-        <v>-0.005475087485195986</v>
+        <v>-0.001728118923824141</v>
       </c>
       <c r="H43">
-        <v>-0.01399651959235293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.0168760669500271</v>
+      </c>
+      <c r="I43">
+        <v>0.02539556793250376</v>
+      </c>
+      <c r="J43">
+        <v>0.05793151106792604</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.08029698070941181</v>
+        <v>0.1259885423695867</v>
       </c>
       <c r="C44">
-        <v>-0.01018207397098937</v>
+        <v>-0.08548224513406689</v>
       </c>
       <c r="D44">
-        <v>-0.08111347252676908</v>
+        <v>-0.008468587589467278</v>
       </c>
       <c r="E44">
-        <v>0.08848221834702803</v>
+        <v>-0.04601541844331336</v>
       </c>
       <c r="F44">
-        <v>0.06394380999416498</v>
+        <v>-0.0684199267082392</v>
       </c>
       <c r="G44">
-        <v>-0.0840167196048551</v>
+        <v>-0.09147193889418119</v>
       </c>
       <c r="H44">
-        <v>0.002029097539081373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.1961565339112998</v>
+      </c>
+      <c r="I44">
+        <v>0.09922948781725206</v>
+      </c>
+      <c r="J44">
+        <v>-0.1601031843177487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05330982302507761</v>
+        <v>0.02464139720683398</v>
       </c>
       <c r="C46">
-        <v>-0.03635899089936996</v>
+        <v>0.002988502341368364</v>
       </c>
       <c r="D46">
-        <v>-0.05381823683720945</v>
+        <v>0.02474146529560121</v>
       </c>
       <c r="E46">
-        <v>-0.005705479072096539</v>
+        <v>-0.03450109085749863</v>
       </c>
       <c r="F46">
-        <v>0.02060561641471073</v>
+        <v>-0.02841941811043365</v>
       </c>
       <c r="G46">
-        <v>-0.0166177959365725</v>
+        <v>-0.02033558329941368</v>
       </c>
       <c r="H46">
-        <v>0.07193389520304977</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.05376598689216657</v>
+      </c>
+      <c r="I46">
+        <v>0.0431028248239197</v>
+      </c>
+      <c r="J46">
+        <v>0.06747161918373527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05035892426840057</v>
+        <v>0.04226266307938931</v>
       </c>
       <c r="C47">
-        <v>-0.0001219957098287223</v>
+        <v>0.003728986615049577</v>
       </c>
       <c r="D47">
-        <v>-0.06611507832498108</v>
+        <v>0.01292699269210083</v>
       </c>
       <c r="E47">
-        <v>-0.02991158230842979</v>
+        <v>-0.0114492578981134</v>
       </c>
       <c r="F47">
-        <v>-0.01212874808223275</v>
+        <v>-0.01323791234104368</v>
       </c>
       <c r="G47">
-        <v>-0.006031709360196354</v>
+        <v>0.01087150339146103</v>
       </c>
       <c r="H47">
-        <v>0.01238492263292501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.02651449022889519</v>
+      </c>
+      <c r="I47">
+        <v>0.03629006165478461</v>
+      </c>
+      <c r="J47">
+        <v>0.04844428814054411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04182847216554542</v>
+        <v>0.03976866501183921</v>
       </c>
       <c r="C48">
-        <v>-0.002418896345561537</v>
+        <v>-0.007852110353667337</v>
       </c>
       <c r="D48">
-        <v>-0.03197456635277219</v>
+        <v>-0.01155256039332122</v>
       </c>
       <c r="E48">
-        <v>-0.03830289734038422</v>
+        <v>-0.01243726419635247</v>
       </c>
       <c r="F48">
-        <v>-0.01311778229129738</v>
+        <v>0.002906093875901043</v>
       </c>
       <c r="G48">
-        <v>-0.05175511384553667</v>
+        <v>0.01525915289249889</v>
       </c>
       <c r="H48">
-        <v>-0.0004703976029902365</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05532691571663081</v>
+      </c>
+      <c r="I48">
+        <v>0.0516432132512924</v>
+      </c>
+      <c r="J48">
+        <v>0.04728021776382001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2383904860391546</v>
+        <v>0.2282507853271409</v>
       </c>
       <c r="C49">
-        <v>-0.06449141974568362</v>
+        <v>-0.004399657578978809</v>
       </c>
       <c r="D49">
-        <v>0.09076423411644852</v>
+        <v>0.06905331637045949</v>
       </c>
       <c r="E49">
-        <v>0.02400707356734467</v>
+        <v>0.03153628272617121</v>
       </c>
       <c r="F49">
-        <v>-0.06872018701531313</v>
+        <v>0.02589312698280553</v>
       </c>
       <c r="G49">
-        <v>0.1372768710452766</v>
+        <v>-0.06813211425908952</v>
       </c>
       <c r="H49">
-        <v>-0.06571726762753578</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1397503820973312</v>
+      </c>
+      <c r="I49">
+        <v>-0.1758886062105653</v>
+      </c>
+      <c r="J49">
+        <v>-0.1927022904345162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05623498529873668</v>
+        <v>0.04358222928803341</v>
       </c>
       <c r="C50">
-        <v>-0.01477010634484466</v>
+        <v>-0.01932235071961555</v>
       </c>
       <c r="D50">
-        <v>-0.0185603006279146</v>
+        <v>0.02895213672402717</v>
       </c>
       <c r="E50">
-        <v>-0.02466833304794883</v>
+        <v>-0.01567579683441276</v>
       </c>
       <c r="F50">
-        <v>0.03353534471346642</v>
+        <v>0.006251983495538404</v>
       </c>
       <c r="G50">
-        <v>-0.00474020053919193</v>
+        <v>-0.003862888455564236</v>
       </c>
       <c r="H50">
-        <v>0.05036478694226845</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.04663591615211003</v>
+      </c>
+      <c r="I50">
+        <v>0.03361203688186085</v>
+      </c>
+      <c r="J50">
+        <v>0.04727786953358715</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03569123141523581</v>
+        <v>0.01594238132092841</v>
       </c>
       <c r="C51">
-        <v>-0.01028346301197933</v>
+        <v>0.007259241443661441</v>
       </c>
       <c r="D51">
-        <v>-0.003732050129707478</v>
+        <v>0.002746519474283639</v>
       </c>
       <c r="E51">
-        <v>0.02307653248532918</v>
+        <v>-0.01683316046367182</v>
       </c>
       <c r="F51">
-        <v>0.02278191290907845</v>
+        <v>-0.006484382931749626</v>
       </c>
       <c r="G51">
-        <v>0.01965366134389916</v>
+        <v>-0.02252495760785963</v>
       </c>
       <c r="H51">
-        <v>-0.03812214019464052</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.02072219394091522</v>
+      </c>
+      <c r="I51">
+        <v>-0.003261609913957334</v>
+      </c>
+      <c r="J51">
+        <v>-0.01667266369359488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.09822201464402293</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.07051161401285176</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.02896399121303098</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02263978374440679</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02347528823783154</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.002125400722766142</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.06662124624322306</v>
+      </c>
+      <c r="I52">
+        <v>-0.03691378223683581</v>
+      </c>
+      <c r="J52">
+        <v>0.1205685097319405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1635003823817375</v>
+        <v>0.1583052059330965</v>
       </c>
       <c r="C53">
-        <v>0.002927553023216354</v>
+        <v>-0.0216981591428926</v>
       </c>
       <c r="D53">
-        <v>0.05374273412216212</v>
+        <v>-0.003415509458266814</v>
       </c>
       <c r="E53">
-        <v>-0.04799546776034984</v>
+        <v>0.00980392076398073</v>
       </c>
       <c r="F53">
-        <v>0.1998930913876519</v>
+        <v>-0.01239401767431026</v>
       </c>
       <c r="G53">
-        <v>0.03790989507261026</v>
+        <v>-0.03327746325841067</v>
       </c>
       <c r="H53">
-        <v>0.06832782652567504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.03194798063566075</v>
+      </c>
+      <c r="I53">
+        <v>-0.1131230502481113</v>
+      </c>
+      <c r="J53">
+        <v>0.1910012286947866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05527121737861444</v>
+        <v>0.05064127233429077</v>
       </c>
       <c r="C54">
-        <v>-0.007124002326356634</v>
+        <v>-0.01235242651368061</v>
       </c>
       <c r="D54">
-        <v>-0.04153529655873418</v>
+        <v>0.01296243907815433</v>
       </c>
       <c r="E54">
-        <v>0.006566187003376258</v>
+        <v>-0.01747277858270601</v>
       </c>
       <c r="F54">
-        <v>0.00197216598016495</v>
+        <v>-0.02027369626489229</v>
       </c>
       <c r="G54">
-        <v>-0.05663353514362882</v>
+        <v>0.008301143613301297</v>
       </c>
       <c r="H54">
-        <v>0.08249047835788002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.06838841800613775</v>
+      </c>
+      <c r="I54">
+        <v>0.1318683307662008</v>
+      </c>
+      <c r="J54">
+        <v>0.04117696513004263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.0975524594762627</v>
+        <v>0.09003272995802147</v>
       </c>
       <c r="C55">
-        <v>-0.009995669860098611</v>
+        <v>-0.02855969538180229</v>
       </c>
       <c r="D55">
-        <v>0.002243633592544121</v>
+        <v>-0.01736720380800527</v>
       </c>
       <c r="E55">
-        <v>-0.02791184843382377</v>
+        <v>-0.03892303880517513</v>
       </c>
       <c r="F55">
-        <v>0.1362043328657017</v>
+        <v>0.01943590225117461</v>
       </c>
       <c r="G55">
-        <v>-0.009738173532455267</v>
+        <v>-0.009884683338592919</v>
       </c>
       <c r="H55">
-        <v>0.07715257259585542</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.002589501714636509</v>
+      </c>
+      <c r="I55">
+        <v>-0.0197004992467431</v>
+      </c>
+      <c r="J55">
+        <v>0.1367683456412914</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1652868609037504</v>
+        <v>0.1625898318999668</v>
       </c>
       <c r="C56">
-        <v>0.00166253927239858</v>
+        <v>-0.03606221122947689</v>
       </c>
       <c r="D56">
-        <v>0.0619151304343234</v>
+        <v>0.0131025100696099</v>
       </c>
       <c r="E56">
-        <v>-0.07892944758442634</v>
+        <v>-0.02156800537526654</v>
       </c>
       <c r="F56">
-        <v>0.1813696087040081</v>
+        <v>0.02142634188911503</v>
       </c>
       <c r="G56">
-        <v>0.01824754630960652</v>
+        <v>-0.02980722925206699</v>
       </c>
       <c r="H56">
-        <v>0.06058412793400045</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.02597016760123197</v>
+      </c>
+      <c r="I56">
+        <v>-0.05832779442500026</v>
+      </c>
+      <c r="J56">
+        <v>0.1539150892327889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01714320181177855</v>
+        <v>0.03413925075358922</v>
       </c>
       <c r="C58">
-        <v>-0.07857932597046036</v>
+        <v>-0.0141719879109125</v>
       </c>
       <c r="D58">
-        <v>-0.2146515265787545</v>
+        <v>0.01859624653770605</v>
       </c>
       <c r="E58">
-        <v>-0.04272078441014952</v>
+        <v>-0.01048403294479237</v>
       </c>
       <c r="F58">
-        <v>-0.4256284216053189</v>
+        <v>-0.08020084692452685</v>
       </c>
       <c r="G58">
-        <v>-0.1353530042528177</v>
+        <v>0.005377463960918966</v>
       </c>
       <c r="H58">
-        <v>-0.2576648398927329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1007915142376963</v>
+      </c>
+      <c r="I58">
+        <v>-0.0167223903529558</v>
+      </c>
+      <c r="J58">
+        <v>0.01302067040760387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1498384134415937</v>
+        <v>0.1560323957590585</v>
       </c>
       <c r="C59">
-        <v>0.3839722688434955</v>
+        <v>0.3022904761927638</v>
       </c>
       <c r="D59">
-        <v>0.04109626683638887</v>
+        <v>-0.08095149874791914</v>
       </c>
       <c r="E59">
-        <v>0.05745034681557851</v>
+        <v>-0.02552386146842663</v>
       </c>
       <c r="F59">
-        <v>0.06109410754244455</v>
+        <v>0.05007868937218649</v>
       </c>
       <c r="G59">
-        <v>-0.01539204118407698</v>
+        <v>-0.03274941318504697</v>
       </c>
       <c r="H59">
-        <v>-0.0265733850673027</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.06769075037539513</v>
+      </c>
+      <c r="I59">
+        <v>0.04407703918315416</v>
+      </c>
+      <c r="J59">
+        <v>0.008214887911296903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2765809513963179</v>
+        <v>0.2804249422785126</v>
       </c>
       <c r="C60">
-        <v>-0.0526160748557757</v>
+        <v>-0.09863250467831269</v>
       </c>
       <c r="D60">
-        <v>0.06037930494765911</v>
+        <v>0.01895765493376214</v>
       </c>
       <c r="E60">
-        <v>0.04847845327225191</v>
+        <v>0.093955500340193</v>
       </c>
       <c r="F60">
-        <v>-0.06357434387005212</v>
+        <v>0.002851263164881212</v>
       </c>
       <c r="G60">
-        <v>0.1462397450153185</v>
+        <v>-0.1269186975226829</v>
       </c>
       <c r="H60">
-        <v>-0.03682185519235856</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1539986846173542</v>
+      </c>
+      <c r="I60">
+        <v>-0.1984191774952037</v>
+      </c>
+      <c r="J60">
+        <v>-0.3605024461323914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09455312554024126</v>
+        <v>0.1103137299937287</v>
       </c>
       <c r="C61">
-        <v>-0.02148127879823934</v>
+        <v>-0.05681996592963296</v>
       </c>
       <c r="D61">
-        <v>-0.02801312409811912</v>
+        <v>-0.004751027321381739</v>
       </c>
       <c r="E61">
-        <v>0.009365581799147853</v>
+        <v>-0.04196830502398207</v>
       </c>
       <c r="F61">
-        <v>0.03298075480342666</v>
+        <v>0.07838096831169647</v>
       </c>
       <c r="G61">
-        <v>-0.06155957115771412</v>
+        <v>-0.02388113182771557</v>
       </c>
       <c r="H61">
-        <v>-0.04611555079049143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1343110153907832</v>
+      </c>
+      <c r="I61">
+        <v>0.1248810708302219</v>
+      </c>
+      <c r="J61">
+        <v>0.04213247997735434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1450293766414271</v>
+        <v>0.1599485885856943</v>
       </c>
       <c r="C62">
-        <v>-0.02831778388358156</v>
+        <v>-0.03438878000277586</v>
       </c>
       <c r="D62">
-        <v>0.1214682118321155</v>
+        <v>0.00525851908433215</v>
       </c>
       <c r="E62">
-        <v>-0.07350672525768689</v>
+        <v>-0.003981852006304686</v>
       </c>
       <c r="F62">
-        <v>0.1639339792267262</v>
+        <v>0.02004617494855663</v>
       </c>
       <c r="G62">
-        <v>0.00933457268029189</v>
+        <v>-0.004246584836697232</v>
       </c>
       <c r="H62">
-        <v>0.08406995783048563</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.001517099455824212</v>
+      </c>
+      <c r="I62">
+        <v>-0.09210458815351939</v>
+      </c>
+      <c r="J62">
+        <v>0.1519932588124545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04392546469888832</v>
+        <v>0.04259701751218307</v>
       </c>
       <c r="C63">
-        <v>-0.01941432340721752</v>
+        <v>-0.006877739461641194</v>
       </c>
       <c r="D63">
-        <v>-0.002832107396582556</v>
+        <v>-0.005569843862660624</v>
       </c>
       <c r="E63">
-        <v>-0.01680743587216131</v>
+        <v>-0.02411094950936913</v>
       </c>
       <c r="F63">
-        <v>-0.006862647549059857</v>
+        <v>0.00885928442377249</v>
       </c>
       <c r="G63">
-        <v>-0.03983113124517099</v>
+        <v>0.03996328988911095</v>
       </c>
       <c r="H63">
-        <v>0.1041233496068472</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.04536519260799374</v>
+      </c>
+      <c r="I63">
+        <v>0.06135938613526096</v>
+      </c>
+      <c r="J63">
+        <v>0.03856324316166421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1104541163330477</v>
+        <v>0.09893923773777705</v>
       </c>
       <c r="C64">
-        <v>-0.00999764323620821</v>
+        <v>-0.0142714405054661</v>
       </c>
       <c r="D64">
-        <v>-0.04518271275593264</v>
+        <v>0.01399150673982525</v>
       </c>
       <c r="E64">
-        <v>0.02719333199608332</v>
+        <v>-0.002387411558556018</v>
       </c>
       <c r="F64">
-        <v>-0.002740898034245467</v>
+        <v>-0.00136787895176823</v>
       </c>
       <c r="G64">
-        <v>-0.04716327142599712</v>
+        <v>-0.05429822362625865</v>
       </c>
       <c r="H64">
-        <v>0.01401368188515875</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.04732576609845478</v>
+      </c>
+      <c r="I64">
+        <v>0.04257602466395284</v>
+      </c>
+      <c r="J64">
+        <v>-0.05672477044609337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1119689307412896</v>
+        <v>0.1174794698293468</v>
       </c>
       <c r="C65">
-        <v>-0.03251277412101452</v>
+        <v>-0.0115908008707754</v>
       </c>
       <c r="D65">
-        <v>-0.02285170513206715</v>
+        <v>-0.01737940594143236</v>
       </c>
       <c r="E65">
-        <v>0.01088188916816858</v>
+        <v>0.01709552239712701</v>
       </c>
       <c r="F65">
-        <v>-0.4298086363890151</v>
+        <v>-0.009190744688689181</v>
       </c>
       <c r="G65">
-        <v>0.1139932165446072</v>
+        <v>0.06927141211192483</v>
       </c>
       <c r="H65">
-        <v>0.5956298063212052</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.01833094585653037</v>
+      </c>
+      <c r="I65">
+        <v>-0.001110388023812309</v>
+      </c>
+      <c r="J65">
+        <v>-0.2094380614104554</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1557309175041549</v>
+        <v>0.1655136657673416</v>
       </c>
       <c r="C66">
-        <v>-0.04632570312569242</v>
+        <v>-0.09852640129138371</v>
       </c>
       <c r="D66">
-        <v>-0.03274238293063501</v>
+        <v>0.03750459974119403</v>
       </c>
       <c r="E66">
-        <v>0.04858156015791377</v>
+        <v>-0.05837395388621217</v>
       </c>
       <c r="F66">
-        <v>0.08236023323463518</v>
+        <v>0.1448235150568762</v>
       </c>
       <c r="G66">
-        <v>-0.265703071074639</v>
+        <v>-0.03043285393754643</v>
       </c>
       <c r="H66">
-        <v>-0.1658278616969339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.142855727937019</v>
+      </c>
+      <c r="I66">
+        <v>0.04676310552665972</v>
+      </c>
+      <c r="J66">
+        <v>-0.01278536577691581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1094809257479658</v>
+        <v>0.08037682728930441</v>
       </c>
       <c r="C67">
-        <v>-0.036153598074615</v>
+        <v>-0.04368843749442505</v>
       </c>
       <c r="D67">
-        <v>-0.002258093157717979</v>
+        <v>-0.009058741885306717</v>
       </c>
       <c r="E67">
-        <v>0.03779175851883471</v>
+        <v>-0.0722380739976589</v>
       </c>
       <c r="F67">
-        <v>0.05656706949668049</v>
+        <v>-0.01223295751407902</v>
       </c>
       <c r="G67">
-        <v>-0.03458011480136319</v>
+        <v>-0.03098116963100195</v>
       </c>
       <c r="H67">
-        <v>-0.0154199576215679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.09517369735500254</v>
+      </c>
+      <c r="I67">
+        <v>-0.02114054336305033</v>
+      </c>
+      <c r="J67">
+        <v>-0.01413219224112249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.03815881267558389</v>
+        <v>0.07039083825102307</v>
       </c>
       <c r="C68">
-        <v>0.2912235701224022</v>
+        <v>0.2751657632687839</v>
       </c>
       <c r="D68">
-        <v>0.007260175901394353</v>
+        <v>-0.08687119670728446</v>
       </c>
       <c r="E68">
-        <v>-0.01958655048997995</v>
+        <v>-0.0112900286981475</v>
       </c>
       <c r="F68">
-        <v>-0.02297669687877453</v>
+        <v>0.03339799115172765</v>
       </c>
       <c r="G68">
-        <v>0.01482281274542737</v>
+        <v>0.01295692147445994</v>
       </c>
       <c r="H68">
-        <v>0.02409323331067659</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04254834215771972</v>
+      </c>
+      <c r="I68">
+        <v>0.04059529576518313</v>
+      </c>
+      <c r="J68">
+        <v>-0.01791937721824327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.05029588330574195</v>
+        <v>0.03838850730819096</v>
       </c>
       <c r="C69">
-        <v>-0.0115717407285729</v>
+        <v>-0.005065661645953463</v>
       </c>
       <c r="D69">
-        <v>0.01000538661422167</v>
+        <v>-0.01034173790864494</v>
       </c>
       <c r="E69">
-        <v>-0.03523888037689852</v>
+        <v>-0.02369380923707333</v>
       </c>
       <c r="F69">
-        <v>-0.009862607663142019</v>
+        <v>-0.0008673359566002341</v>
       </c>
       <c r="G69">
-        <v>-0.02235003621052459</v>
+        <v>-0.002295595713723181</v>
       </c>
       <c r="H69">
-        <v>0.005447979941823925</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01171633813607187</v>
+      </c>
+      <c r="I69">
+        <v>-0.002012129518303759</v>
+      </c>
+      <c r="J69">
+        <v>0.02276089287507321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08211279037942155</v>
+        <v>0.03930213801657645</v>
       </c>
       <c r="C70">
-        <v>-0.01030354928771758</v>
+        <v>0.004205513517337458</v>
       </c>
       <c r="D70">
-        <v>0.001021733939247967</v>
+        <v>-0.02004175485330716</v>
       </c>
       <c r="E70">
-        <v>0.06091081268434369</v>
+        <v>-0.02678227801746765</v>
       </c>
       <c r="F70">
-        <v>0.01800109968535601</v>
+        <v>0.02534150792335583</v>
       </c>
       <c r="G70">
-        <v>0.04030384526110301</v>
+        <v>-0.05431237892563607</v>
       </c>
       <c r="H70">
-        <v>-0.03533252932918948</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02648002761977541</v>
+      </c>
+      <c r="I70">
+        <v>0.01238451483755171</v>
+      </c>
+      <c r="J70">
+        <v>0.04582862162629701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04872520356500978</v>
+        <v>0.08345810869136391</v>
       </c>
       <c r="C71">
-        <v>0.3005294357479978</v>
+        <v>0.2897050244790885</v>
       </c>
       <c r="D71">
-        <v>0.0008986821892202471</v>
+        <v>-0.09157969857341793</v>
       </c>
       <c r="E71">
-        <v>0.001093450455477545</v>
+        <v>-0.01365398942734093</v>
       </c>
       <c r="F71">
-        <v>-0.01119300998707736</v>
+        <v>0.02508578869125442</v>
       </c>
       <c r="G71">
-        <v>-0.01108690047755328</v>
+        <v>-0.0134193287548437</v>
       </c>
       <c r="H71">
-        <v>0.001085594848455312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.04390801333014251</v>
+      </c>
+      <c r="I71">
+        <v>0.03618317059751436</v>
+      </c>
+      <c r="J71">
+        <v>-0.03291000271253027</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1307636974210257</v>
+        <v>0.1372605700541821</v>
       </c>
       <c r="C72">
-        <v>0.01937414947321908</v>
+        <v>0.01848390589623021</v>
       </c>
       <c r="D72">
-        <v>0.08759042893831438</v>
+        <v>0.01611233218003098</v>
       </c>
       <c r="E72">
-        <v>-0.1134033149447427</v>
+        <v>-0.0167542245331967</v>
       </c>
       <c r="F72">
-        <v>-0.02947002815497827</v>
+        <v>0.01529317549715945</v>
       </c>
       <c r="G72">
-        <v>-0.08571720789057193</v>
+        <v>0.04570691106503037</v>
       </c>
       <c r="H72">
-        <v>0.1144892094174681</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.01248312683714755</v>
+      </c>
+      <c r="I72">
+        <v>-0.0009419402584435548</v>
+      </c>
+      <c r="J72">
+        <v>0.02760616115206871</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2816870452459345</v>
+        <v>0.245801637255999</v>
       </c>
       <c r="C73">
-        <v>-0.1444039511157542</v>
+        <v>-0.05566029952906558</v>
       </c>
       <c r="D73">
-        <v>0.1542413589776213</v>
+        <v>0.04884078585973009</v>
       </c>
       <c r="E73">
-        <v>0.1141544920124064</v>
+        <v>-0.02564464310018033</v>
       </c>
       <c r="F73">
-        <v>-0.2709589100304854</v>
+        <v>0.07934346338278597</v>
       </c>
       <c r="G73">
-        <v>0.2664412773571512</v>
+        <v>-0.1891506435104977</v>
       </c>
       <c r="H73">
-        <v>-0.2645495306518947</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2411205590455148</v>
+      </c>
+      <c r="I73">
+        <v>-0.3050122919689421</v>
+      </c>
+      <c r="J73">
+        <v>-0.2474830728940953</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1003464539779144</v>
+        <v>0.1089372633660696</v>
       </c>
       <c r="C74">
-        <v>-0.03236589226968541</v>
+        <v>-0.02597128646188541</v>
       </c>
       <c r="D74">
-        <v>0.01947912836025702</v>
+        <v>0.02788759773510335</v>
       </c>
       <c r="E74">
-        <v>-0.01755105289780079</v>
+        <v>-0.02704695560293653</v>
       </c>
       <c r="F74">
-        <v>0.1011674637008672</v>
+        <v>0.006396733951003272</v>
       </c>
       <c r="G74">
-        <v>0.03257847990746952</v>
+        <v>-0.01093365038481654</v>
       </c>
       <c r="H74">
-        <v>0.03199775617451005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.0479182340610723</v>
+      </c>
+      <c r="I74">
+        <v>-0.08000207741235198</v>
+      </c>
+      <c r="J74">
+        <v>0.1134191897445299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09339954329886901</v>
+        <v>0.1176505950415363</v>
       </c>
       <c r="C75">
-        <v>-0.0192726909211662</v>
+        <v>-0.03599646842196096</v>
       </c>
       <c r="D75">
-        <v>0.04423363087999443</v>
+        <v>0.02187926867623463</v>
       </c>
       <c r="E75">
-        <v>-0.07157828146387661</v>
+        <v>-0.01777966133637512</v>
       </c>
       <c r="F75">
-        <v>0.08819802056429074</v>
+        <v>0.004688601029995008</v>
       </c>
       <c r="G75">
-        <v>0.04838042860926345</v>
+        <v>0.02256511864276404</v>
       </c>
       <c r="H75">
-        <v>0.0142485294178262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.005551439606901422</v>
+      </c>
+      <c r="I75">
+        <v>-0.03726968366838829</v>
+      </c>
+      <c r="J75">
+        <v>0.1415516335258227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1411559628582485</v>
+        <v>0.04651724203827545</v>
       </c>
       <c r="C76">
-        <v>-0.02593046090101417</v>
+        <v>-0.002393417223018165</v>
       </c>
       <c r="D76">
-        <v>-0.00602547759486343</v>
+        <v>0.01344134634202865</v>
       </c>
       <c r="E76">
-        <v>-0.05907594407296104</v>
+        <v>-0.03397398219584857</v>
       </c>
       <c r="F76">
-        <v>0.2188050900210984</v>
+        <v>-0.01121766446721594</v>
       </c>
       <c r="G76">
-        <v>0.08501870776243674</v>
+        <v>-0.03039766452722883</v>
       </c>
       <c r="H76">
-        <v>0.05117432083940223</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.04423902752924973</v>
+      </c>
+      <c r="I76">
+        <v>-0.02773213287198258</v>
+      </c>
+      <c r="J76">
+        <v>0.09009913693873974</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.07836743077890822</v>
+        <v>0.08315771876119885</v>
       </c>
       <c r="C77">
-        <v>0.01425053649564947</v>
+        <v>-0.08151648134051961</v>
       </c>
       <c r="D77">
-        <v>-0.1016279293510224</v>
+        <v>0.01562686354579617</v>
       </c>
       <c r="E77">
-        <v>0.1083918651709708</v>
+        <v>0.005221257074493886</v>
       </c>
       <c r="F77">
-        <v>-0.186848678787006</v>
+        <v>-0.009425220231526513</v>
       </c>
       <c r="G77">
-        <v>-0.1609037203372403</v>
+        <v>-0.04675415297335851</v>
       </c>
       <c r="H77">
-        <v>-0.1341983045456729</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.03595527144744434</v>
+      </c>
+      <c r="I77">
+        <v>0.1956293997967972</v>
+      </c>
+      <c r="J77">
+        <v>-0.2895524504062212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2284666995645874</v>
+        <v>0.1356233584598957</v>
       </c>
       <c r="C78">
-        <v>-0.04529412559267391</v>
+        <v>-0.0006145284212514558</v>
       </c>
       <c r="D78">
-        <v>-0.2255153565273229</v>
+        <v>0.166867599010884</v>
       </c>
       <c r="E78">
-        <v>0.04173296537896067</v>
+        <v>-0.2108064991720845</v>
       </c>
       <c r="F78">
-        <v>-0.03931759741417103</v>
+        <v>-0.2610380492399732</v>
       </c>
       <c r="G78">
-        <v>-0.1368338535235251</v>
+        <v>0.1419733796537469</v>
       </c>
       <c r="H78">
-        <v>0.08256119959177373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.6330940464035326</v>
+      </c>
+      <c r="I78">
+        <v>0.546960015978216</v>
+      </c>
+      <c r="J78">
+        <v>0.086563782163707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1379440571575404</v>
+        <v>0.1419636776706237</v>
       </c>
       <c r="C79">
-        <v>-0.009417212337828247</v>
+        <v>-0.03323508459842283</v>
       </c>
       <c r="D79">
-        <v>0.0239319163964893</v>
+        <v>0.04656322970825704</v>
       </c>
       <c r="E79">
-        <v>-0.04597378294864479</v>
+        <v>-0.006318422018211927</v>
       </c>
       <c r="F79">
-        <v>0.1134918465811291</v>
+        <v>0.01421527974821787</v>
       </c>
       <c r="G79">
-        <v>-0.01066156029618282</v>
+        <v>-0.01688337492218636</v>
       </c>
       <c r="H79">
-        <v>0.06475684364435098</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.03751382901995885</v>
+      </c>
+      <c r="I79">
+        <v>-0.06248105210361145</v>
+      </c>
+      <c r="J79">
+        <v>0.1194640426266514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03540908815068572</v>
+        <v>0.0720958347954915</v>
       </c>
       <c r="C80">
-        <v>-0.006702360838960382</v>
+        <v>-0.05621770490710944</v>
       </c>
       <c r="D80">
-        <v>0.02600715005976014</v>
+        <v>-0.01200560003730326</v>
       </c>
       <c r="E80">
-        <v>0.05455764659561544</v>
+        <v>-0.03054337754739661</v>
       </c>
       <c r="F80">
-        <v>-0.02123408470461889</v>
+        <v>0.05824726163084736</v>
       </c>
       <c r="G80">
-        <v>-0.04957710920659322</v>
+        <v>-0.001697609145694028</v>
       </c>
       <c r="H80">
-        <v>0.1205982799769757</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.03703106966171864</v>
+      </c>
+      <c r="I80">
+        <v>0.06767796929970549</v>
+      </c>
+      <c r="J80">
+        <v>0.1396195007000329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1117216706658897</v>
+        <v>0.139278402503535</v>
       </c>
       <c r="C81">
-        <v>-1.230455680590105e-05</v>
+        <v>-0.0396304733675028</v>
       </c>
       <c r="D81">
-        <v>0.01281519238365359</v>
+        <v>0.03520066014932811</v>
       </c>
       <c r="E81">
-        <v>-0.03072974735663267</v>
+        <v>-0.02587153323998112</v>
       </c>
       <c r="F81">
-        <v>0.1284688042796709</v>
+        <v>0.003288068746937245</v>
       </c>
       <c r="G81">
-        <v>0.03438359171984838</v>
+        <v>-0.005708909961434266</v>
       </c>
       <c r="H81">
-        <v>0.005851327328841387</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.03658060589488669</v>
+      </c>
+      <c r="I81">
+        <v>-0.01661654856587076</v>
+      </c>
+      <c r="J81">
+        <v>0.1834189686049715</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1146317678708393</v>
+        <v>0.1578197954617904</v>
       </c>
       <c r="C82">
-        <v>-0.02173020102873827</v>
+        <v>-0.05558850640975409</v>
       </c>
       <c r="D82">
-        <v>0.0194599124475391</v>
+        <v>-3.698940908024708e-05</v>
       </c>
       <c r="E82">
-        <v>0.04201604669013523</v>
+        <v>-0.01119736208998862</v>
       </c>
       <c r="F82">
-        <v>0.2502863513267406</v>
+        <v>0.04081174620967704</v>
       </c>
       <c r="G82">
-        <v>0.00615575564187226</v>
+        <v>-0.04889320476928116</v>
       </c>
       <c r="H82">
-        <v>0.05508649244458065</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.0297893740691635</v>
+      </c>
+      <c r="I82">
+        <v>-0.1024675406086894</v>
+      </c>
+      <c r="J82">
+        <v>0.2427699706745842</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1130341019314181</v>
+        <v>0.08819085696792395</v>
       </c>
       <c r="C83">
-        <v>-0.04410142843469632</v>
+        <v>-0.04678302550174497</v>
       </c>
       <c r="D83">
-        <v>-4.201189616043133e-05</v>
+        <v>0.004846197399217789</v>
       </c>
       <c r="E83">
-        <v>0.09619600569387823</v>
+        <v>0.0301505477109868</v>
       </c>
       <c r="F83">
-        <v>-0.0291383291899596</v>
+        <v>-0.02916786247967772</v>
       </c>
       <c r="G83">
-        <v>-0.06274419982670899</v>
+        <v>0.01514623701294143</v>
       </c>
       <c r="H83">
-        <v>-0.1007726871766031</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.03603783734374448</v>
+      </c>
+      <c r="I83">
+        <v>0.09172938073472942</v>
+      </c>
+      <c r="J83">
+        <v>-0.004873476826956357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.04986994289952167</v>
+        <v>0.06351655598025338</v>
       </c>
       <c r="C84">
-        <v>-0.02404104510976456</v>
+        <v>-0.01627434886271811</v>
       </c>
       <c r="D84">
-        <v>-0.01791297446679887</v>
+        <v>-0.009242147527842267</v>
       </c>
       <c r="E84">
-        <v>-0.05511085420563364</v>
+        <v>0.02780870359782816</v>
       </c>
       <c r="F84">
-        <v>0.05804663811315938</v>
+        <v>0.03722901559112436</v>
       </c>
       <c r="G84">
-        <v>0.04498065809261063</v>
+        <v>-0.03970793463086415</v>
       </c>
       <c r="H84">
-        <v>-0.001019427393268981</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.01488641766737535</v>
+      </c>
+      <c r="I84">
+        <v>0.005913827457778789</v>
+      </c>
+      <c r="J84">
+        <v>-0.05809155245036976</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.10756880737469</v>
+        <v>0.1253525756964257</v>
       </c>
       <c r="C85">
-        <v>-0.01463283883908868</v>
+        <v>-0.02634878239931342</v>
       </c>
       <c r="D85">
-        <v>0.03865274774971077</v>
+        <v>0.01886464313831046</v>
       </c>
       <c r="E85">
-        <v>-0.07681416738963706</v>
+        <v>-0.01202844533224551</v>
       </c>
       <c r="F85">
-        <v>0.1398864828673111</v>
+        <v>0.005902614316055392</v>
       </c>
       <c r="G85">
-        <v>-0.01610184999114273</v>
+        <v>-0.01620228449437797</v>
       </c>
       <c r="H85">
-        <v>0.1051928971353414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.02283770605160211</v>
+      </c>
+      <c r="I85">
+        <v>-0.03724554756333725</v>
+      </c>
+      <c r="J85">
+        <v>0.138735370786473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06784350678685547</v>
+        <v>0.1183740950107596</v>
       </c>
       <c r="C86">
-        <v>-0.01462529712271346</v>
+        <v>0.05788510822986932</v>
       </c>
       <c r="D86">
-        <v>-0.08838622241656342</v>
+        <v>0.3260002025959762</v>
       </c>
       <c r="E86">
-        <v>0.1057719108081855</v>
+        <v>0.8722781199862164</v>
       </c>
       <c r="F86">
-        <v>0.03206226112764838</v>
+        <v>-0.1619407083167769</v>
       </c>
       <c r="G86">
-        <v>-0.02535926171048389</v>
+        <v>0.09488436051795729</v>
       </c>
       <c r="H86">
-        <v>0.2704765959026859</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.07212709597891497</v>
+      </c>
+      <c r="I86">
+        <v>0.1389813295844611</v>
+      </c>
+      <c r="J86">
+        <v>0.04558254889602764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1085520643324474</v>
+        <v>0.111774169021874</v>
       </c>
       <c r="C87">
-        <v>-0.05593859679332492</v>
+        <v>-0.09886467669361949</v>
       </c>
       <c r="D87">
-        <v>-0.06355056310072442</v>
+        <v>-0.05437060873861313</v>
       </c>
       <c r="E87">
-        <v>0.01870920025194354</v>
+        <v>-0.003530587546244723</v>
       </c>
       <c r="F87">
-        <v>-0.0236086171722311</v>
+        <v>-0.03726187355648997</v>
       </c>
       <c r="G87">
-        <v>-0.1196881334588525</v>
+        <v>-0.03260031004966803</v>
       </c>
       <c r="H87">
-        <v>0.01428770701778138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.007487488201903114</v>
+      </c>
+      <c r="I87">
+        <v>0.2271784598111739</v>
+      </c>
+      <c r="J87">
+        <v>-0.2044449862795552</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07123584826345308</v>
+        <v>0.05484997765226968</v>
       </c>
       <c r="C88">
-        <v>-0.04160016386909775</v>
+        <v>-0.02655017988862797</v>
       </c>
       <c r="D88">
-        <v>-0.02570511837797889</v>
+        <v>0.02819144132935819</v>
       </c>
       <c r="E88">
-        <v>0.02239904349714363</v>
+        <v>-0.03265397578508965</v>
       </c>
       <c r="F88">
-        <v>0.02714693736944666</v>
+        <v>0.05247523184254688</v>
       </c>
       <c r="G88">
-        <v>-0.04651757494060076</v>
+        <v>-0.01590267364371086</v>
       </c>
       <c r="H88">
-        <v>-0.00986967572508763</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.02862826760887812</v>
+      </c>
+      <c r="I88">
+        <v>0.03696395469223496</v>
+      </c>
+      <c r="J88">
+        <v>0.05226541972600438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.0927497256719384</v>
+        <v>0.1317430301747569</v>
       </c>
       <c r="C89">
-        <v>0.387872293890986</v>
+        <v>0.365101621550368</v>
       </c>
       <c r="D89">
-        <v>-0.03380322498324115</v>
+        <v>-0.103505671406168</v>
       </c>
       <c r="E89">
-        <v>0.05178268426467709</v>
+        <v>-0.004330842478575651</v>
       </c>
       <c r="F89">
-        <v>-0.02030285851635953</v>
+        <v>-0.04084998368758275</v>
       </c>
       <c r="G89">
-        <v>0.003310393698682256</v>
+        <v>-0.04836043752622313</v>
       </c>
       <c r="H89">
-        <v>-0.02410677169338745</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.006430862091380458</v>
+      </c>
+      <c r="I89">
+        <v>0.02000968781507168</v>
+      </c>
+      <c r="J89">
+        <v>-0.01170601117942101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07288965250401507</v>
+        <v>0.0994572490485065</v>
       </c>
       <c r="C90">
-        <v>0.2941216631123262</v>
+        <v>0.2868692375330656</v>
       </c>
       <c r="D90">
-        <v>-0.0442838795347234</v>
+        <v>-0.08241133662953645</v>
       </c>
       <c r="E90">
-        <v>0.01432314750430855</v>
+        <v>-0.001257250992978754</v>
       </c>
       <c r="F90">
-        <v>-0.03056652087461305</v>
+        <v>0.02855073815111289</v>
       </c>
       <c r="G90">
-        <v>-0.0333196000527731</v>
+        <v>-0.02304130930188922</v>
       </c>
       <c r="H90">
-        <v>-0.03388252470376902</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.0645598224142931</v>
+      </c>
+      <c r="I90">
+        <v>0.03782454152240478</v>
+      </c>
+      <c r="J90">
+        <v>-0.0472585890743667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08177550816272793</v>
+        <v>0.08799556853640017</v>
       </c>
       <c r="C91">
-        <v>-0.02238420254249264</v>
+        <v>-0.02253986958953162</v>
       </c>
       <c r="D91">
-        <v>0.01744244163594837</v>
+        <v>0.02174028181872843</v>
       </c>
       <c r="E91">
-        <v>-0.01661129821417452</v>
+        <v>0.005141475362930506</v>
       </c>
       <c r="F91">
-        <v>0.06326392466323677</v>
+        <v>-0.001496072862435777</v>
       </c>
       <c r="G91">
-        <v>0.0642907455978589</v>
+        <v>-0.02240167031885875</v>
       </c>
       <c r="H91">
-        <v>-0.02236878532651886</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.003613000361472286</v>
+      </c>
+      <c r="I91">
+        <v>-0.03736082243784516</v>
+      </c>
+      <c r="J91">
+        <v>0.09280114529170456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06635036408109268</v>
+        <v>0.1119407877727516</v>
       </c>
       <c r="C92">
-        <v>0.3562374396587756</v>
+        <v>0.3235794586974853</v>
       </c>
       <c r="D92">
-        <v>-0.03507710396484297</v>
+        <v>-0.1148874771837667</v>
       </c>
       <c r="E92">
-        <v>0.01771146437520637</v>
+        <v>0.001944881811787746</v>
       </c>
       <c r="F92">
-        <v>-0.0650788918985253</v>
+        <v>-0.01638807917740177</v>
       </c>
       <c r="G92">
-        <v>0.006206706529114813</v>
+        <v>-0.00127615492911983</v>
       </c>
       <c r="H92">
-        <v>-0.03606600429458377</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.06014092327419021</v>
+      </c>
+      <c r="I92">
+        <v>0.04987602289767661</v>
+      </c>
+      <c r="J92">
+        <v>0.01658759058340993</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08120579602384581</v>
+        <v>0.1010862689272121</v>
       </c>
       <c r="C93">
-        <v>0.3044084215721338</v>
+        <v>0.3145141560873138</v>
       </c>
       <c r="D93">
-        <v>-0.01514506079740747</v>
+        <v>-0.08857304903598019</v>
       </c>
       <c r="E93">
-        <v>0.002489574080850484</v>
+        <v>0.0120192945505503</v>
       </c>
       <c r="F93">
-        <v>-0.02975444859162282</v>
+        <v>0.04732297052594432</v>
       </c>
       <c r="G93">
-        <v>0.02836099908886684</v>
+        <v>-0.03048279344145228</v>
       </c>
       <c r="H93">
-        <v>0.01450772732026884</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.03851652099073209</v>
+      </c>
+      <c r="I93">
+        <v>0.03351023108842718</v>
+      </c>
+      <c r="J93">
+        <v>-0.01636856242065231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09263927953219175</v>
+        <v>0.1358617265948229</v>
       </c>
       <c r="C94">
-        <v>-0.04348159611922839</v>
+        <v>-0.03762610140035112</v>
       </c>
       <c r="D94">
-        <v>0.01145684601681164</v>
+        <v>0.02376293339353452</v>
       </c>
       <c r="E94">
-        <v>-0.04692570702994083</v>
+        <v>-0.05161251509401627</v>
       </c>
       <c r="F94">
-        <v>0.1146630381563679</v>
+        <v>-0.009680196279213861</v>
       </c>
       <c r="G94">
-        <v>0.05471336503833112</v>
+        <v>-0.006765417318459133</v>
       </c>
       <c r="H94">
-        <v>0.03920018994419559</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.0004503467255712611</v>
+      </c>
+      <c r="I94">
+        <v>-0.06486897575768143</v>
+      </c>
+      <c r="J94">
+        <v>0.1246449518762668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1292083551664292</v>
+        <v>0.1193148888490313</v>
       </c>
       <c r="C95">
-        <v>-0.07700304594253922</v>
+        <v>-0.04616191760577965</v>
       </c>
       <c r="D95">
-        <v>-0.08804168930961206</v>
+        <v>0.03277615701092875</v>
       </c>
       <c r="E95">
-        <v>0.08088339967495412</v>
+        <v>-0.0318567917708604</v>
       </c>
       <c r="F95">
-        <v>-0.07217304970625849</v>
+        <v>-0.02507943112899464</v>
       </c>
       <c r="G95">
-        <v>-0.1145442100362829</v>
+        <v>-0.03957557597028631</v>
       </c>
       <c r="H95">
-        <v>0.05215758708627785</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.0565031525545884</v>
+      </c>
+      <c r="I95">
+        <v>0.1140105844846014</v>
+      </c>
+      <c r="J95">
+        <v>-0.04964571804124186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01156445339065209</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.001592101022281603</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0007453805829106631</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.004652612992111622</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.007215356667131364</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.004001508490336188</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.002824317545374255</v>
+      </c>
+      <c r="I96">
+        <v>0.02614498379678414</v>
+      </c>
+      <c r="J96">
+        <v>-0.01763192943122392</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1465267477411261</v>
+        <v>0.1685079253810163</v>
       </c>
       <c r="C97">
-        <v>0.04064922722115151</v>
+        <v>0.02000596067965299</v>
       </c>
       <c r="D97">
-        <v>0.2569048201410259</v>
+        <v>0.03403538732201905</v>
       </c>
       <c r="E97">
-        <v>-0.8282029287573778</v>
+        <v>-0.1148637920163328</v>
       </c>
       <c r="F97">
-        <v>-0.1936411306560296</v>
+        <v>-0.01284787522629141</v>
       </c>
       <c r="G97">
-        <v>-0.1607312380008493</v>
+        <v>0.9121563235410173</v>
       </c>
       <c r="H97">
-        <v>-0.04639348060452591</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.08063042736628286</v>
+      </c>
+      <c r="I97">
+        <v>-0.2102862377106818</v>
+      </c>
+      <c r="J97">
+        <v>-0.1033035866201527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3279923781916295</v>
+        <v>0.2750647078380586</v>
       </c>
       <c r="C98">
-        <v>-0.05416237718751347</v>
+        <v>-0.03214900072164451</v>
       </c>
       <c r="D98">
-        <v>0.2131236289292872</v>
+        <v>-0.02631318864761323</v>
       </c>
       <c r="E98">
-        <v>0.162045665372052</v>
+        <v>0.09830954864926568</v>
       </c>
       <c r="F98">
-        <v>-0.07585959643976986</v>
+        <v>-0.06753834840787179</v>
       </c>
       <c r="G98">
-        <v>0.3257233968344612</v>
+        <v>-0.0292808500326342</v>
       </c>
       <c r="H98">
-        <v>-0.2549665666002819</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.2912866814512698</v>
+      </c>
+      <c r="I98">
+        <v>-0.2148020405108461</v>
+      </c>
+      <c r="J98">
+        <v>0.1989283907687582</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.08725785508228479</v>
+        <v>0.05865168784009597</v>
       </c>
       <c r="C99">
-        <v>-0.01664075073478562</v>
+        <v>0.004947681899402231</v>
       </c>
       <c r="D99">
-        <v>0.01334891907869659</v>
+        <v>0.01823677645700095</v>
       </c>
       <c r="E99">
-        <v>0.001297845326692467</v>
+        <v>-0.04504552586590057</v>
       </c>
       <c r="F99">
-        <v>0.01405212934170429</v>
+        <v>-0.005432915612894841</v>
       </c>
       <c r="G99">
-        <v>-0.02195279492593042</v>
+        <v>-0.01123908008910593</v>
       </c>
       <c r="H99">
-        <v>-0.06501987731669572</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02286613922471873</v>
+      </c>
+      <c r="I99">
+        <v>-0.01633450764904468</v>
+      </c>
+      <c r="J99">
+        <v>0.01571846391372477</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.08641485414209474</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2702737135964376</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.8678758166971285</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2625899769986894</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.1113485313980397</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.0885237513646482</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.08626249156710378</v>
+      </c>
+      <c r="I100">
+        <v>0.0995837403287107</v>
+      </c>
+      <c r="J100">
+        <v>0.04800274942480929</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.06030034097903088</v>
+        <v>0.03600373707257624</v>
       </c>
       <c r="C101">
-        <v>0.0005024208007792791</v>
+        <v>-0.008522693172000637</v>
       </c>
       <c r="D101">
-        <v>-0.05686871318965508</v>
+        <v>-0.005315401430495149</v>
       </c>
       <c r="E101">
-        <v>0.02290694450191011</v>
+        <v>-0.01187883000893455</v>
       </c>
       <c r="F101">
-        <v>0.03057297466487511</v>
+        <v>0.02035717863283852</v>
       </c>
       <c r="G101">
-        <v>-0.03092171880779042</v>
+        <v>-0.02680843636354341</v>
       </c>
       <c r="H101">
-        <v>0.07875977379535337</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.07955898959026009</v>
+      </c>
+      <c r="I101">
+        <v>0.06907335277353481</v>
+      </c>
+      <c r="J101">
+        <v>0.06471721166107196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
